--- a/NathanMooreCA/Flight data.xlsx
+++ b/NathanMooreCA/Flight data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natzmoore/Library/CloudStorage/OneDrive-DunLaoghaireInstituteofArt,DesignandTechnology/2nd Year/Creative Coding 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natzmoore/Library/CloudStorage/OneDrive-DunLaoghaireInstituteofArt,DesignandTechnology/2nd Year/Creative Coding 2/NathanMooreCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A9507-C4FC-AC4E-A28A-47923595B22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21F340-2FDD-344C-8A72-761DF6C78AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DACCA432-4C8B-5B4A-99CB-099549AC0CC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{DACCA432-4C8B-5B4A-99CB-099549AC0CC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dublin Passengers(data01)" sheetId="1" r:id="rId1"/>
     <sheet name="Passangers-Main Air. (data02)" sheetId="3" r:id="rId2"/>
     <sheet name="Flights Handled(data03)" sheetId="2" r:id="rId3"/>
+    <sheet name="Dublin Airport Flights (data04)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Month</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>Total 2020</t>
-  </si>
-  <si>
     <t>Arrivals</t>
   </si>
   <si>
@@ -90,9 +88,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of flights handled by Irish Airports (2018-2020) </t>
-  </si>
-  <si>
     <t>2019 vs 2020 Dublin Airport Passengers</t>
   </si>
   <si>
@@ -112,6 +107,12 @@
   </si>
   <si>
     <t>Number of Passangers handled by main Irish Airports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of flights handled by Irish Airports (2016-2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of flights handled by Irish Airports (2015-2020) </t>
   </si>
 </sst>
 </file>
@@ -206,7 +207,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,25 +222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,22 +239,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,16 +256,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960E58CF-1CD5-3145-81C5-5B04F61140AD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,20 +599,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="11">
         <v>2019</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="12">
         <v>2020</v>
       </c>
     </row>
@@ -641,10 +620,10 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="3">
         <v>2000000</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="3">
         <v>2040000</v>
       </c>
     </row>
@@ -652,10 +631,10 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="3">
         <v>2000000</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="3">
         <v>2040000</v>
       </c>
     </row>
@@ -663,10 +642,10 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="3">
         <v>1000000</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="3">
         <v>430000</v>
       </c>
     </row>
@@ -674,87 +653,87 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>27000</v>
       </c>
-      <c r="C6" s="4">
-        <v>270</v>
+      <c r="C6" s="3">
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>46000</v>
       </c>
-      <c r="C7" s="4">
-        <v>920</v>
+      <c r="C7" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>94000</v>
       </c>
-      <c r="C8" s="4">
-        <v>2820</v>
+      <c r="C8" s="3">
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>381000</v>
       </c>
-      <c r="C9" s="6">
-        <v>41910</v>
+      <c r="C9" s="3">
+        <v>42000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>516000</v>
       </c>
-      <c r="C10" s="6">
-        <v>77400</v>
+      <c r="C10" s="3">
+        <v>78000</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>392000</v>
       </c>
-      <c r="C11" s="6">
-        <v>50960</v>
+      <c r="C11" s="3">
+        <v>51000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>263000</v>
       </c>
-      <c r="C12" s="5">
-        <v>23670</v>
+      <c r="C12" s="3">
+        <v>24000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>175000</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>14000</v>
       </c>
     </row>
@@ -762,23 +741,17 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>291000</v>
       </c>
-      <c r="C14" s="5">
-        <v>37830</v>
+      <c r="C14" s="3">
+        <v>38000</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7400000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1628000</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -793,7 +766,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,73 +777,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="13">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7">
         <v>2019</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="8">
         <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13">
+        <v>32571696</v>
+      </c>
+      <c r="C3" s="14">
+        <v>7404121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4342306</v>
+      </c>
+      <c r="C4" s="14">
+        <v>603220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11">
-        <v>32571696</v>
-      </c>
-      <c r="C3" s="12">
-        <v>7404121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="B5" s="13">
+        <v>47886</v>
+      </c>
+      <c r="C5" s="14">
+        <v>9389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11">
-        <v>4342306</v>
-      </c>
-      <c r="C4" s="12">
-        <v>603220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="13">
+        <v>924260</v>
+      </c>
+      <c r="C6" s="14">
+        <v>221342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11">
-        <v>47886</v>
-      </c>
-      <c r="C5" s="12">
-        <v>9389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="11">
-        <v>924260</v>
-      </c>
-      <c r="C6" s="12">
-        <v>221342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="B7" s="13">
         <v>5039</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="14">
         <v>6564</v>
       </c>
     </row>
@@ -881,10 +854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A737062-385E-C844-B72E-DBB125D715DF}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,76 +866,189 @@
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
       <c r="B2" s="15">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2016</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="9">
         <v>2018</v>
       </c>
+      <c r="F2" s="9">
+        <v>2019</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13">
+        <v>116031</v>
+      </c>
+      <c r="C3" s="5">
+        <v>123822</v>
+      </c>
+      <c r="D3" s="5">
+        <v>127352</v>
+      </c>
+      <c r="E3" s="10">
+        <v>133262</v>
+      </c>
+      <c r="F3" s="10">
+        <v>136840</v>
+      </c>
+      <c r="G3" s="10">
+        <v>47745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16">
+        <v>115617</v>
+      </c>
+      <c r="C4" s="5">
+        <v>123515</v>
+      </c>
+      <c r="D4" s="5">
+        <v>127019</v>
+      </c>
+      <c r="E4" s="10">
+        <v>133048</v>
+      </c>
+      <c r="F4" s="10">
+        <v>136718</v>
+      </c>
+      <c r="G4" s="10">
+        <v>47564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="16">
+        <v>231648</v>
+      </c>
+      <c r="C6" s="5">
+        <v>247337</v>
+      </c>
+      <c r="D6" s="5">
+        <v>254371</v>
+      </c>
+      <c r="E6" s="10">
+        <v>266410</v>
+      </c>
+      <c r="F6" s="10">
+        <v>273558</v>
+      </c>
+      <c r="G6" s="10">
+        <v>95309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72464003-E346-D64B-A0A9-2C74E5E71B5F}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="15">
+        <v>2015</v>
+      </c>
       <c r="C2" s="15">
+        <v>2016</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="9">
         <v>2019</v>
       </c>
-      <c r="D2" s="15">
+      <c r="G2" s="9">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9">
-        <v>133262</v>
-      </c>
-      <c r="C3" s="16">
-        <v>136840</v>
-      </c>
-      <c r="D3" s="17">
-        <v>47745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9">
-        <v>133048</v>
-      </c>
-      <c r="C4" s="16">
-        <v>136718</v>
-      </c>
-      <c r="D4" s="17">
-        <v>47564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9">
-        <v>266410</v>
-      </c>
-      <c r="C6" s="16">
-        <v>273558</v>
-      </c>
-      <c r="D6" s="17">
-        <v>95309</v>
+      <c r="B3" s="16">
+        <v>188771</v>
+      </c>
+      <c r="C3" s="5">
+        <v>204563</v>
+      </c>
+      <c r="D3" s="5">
+        <v>212248</v>
+      </c>
+      <c r="E3" s="10">
+        <v>222692</v>
+      </c>
+      <c r="F3" s="10">
+        <v>229000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>80540</v>
       </c>
     </row>
   </sheetData>

--- a/NathanMooreCA/Flight data.xlsx
+++ b/NathanMooreCA/Flight data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natzmoore/Library/CloudStorage/OneDrive-DunLaoghaireInstituteofArt,DesignandTechnology/2nd Year/Creative Coding 2/NathanMooreCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21F340-2FDD-344C-8A72-761DF6C78AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B6BBE2-F335-CF4C-82DA-068B46323F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{DACCA432-4C8B-5B4A-99CB-099549AC0CC8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Dublin Passengers(data01)" sheetId="1" r:id="rId1"/>
     <sheet name="Passangers-Main Air. (data02)" sheetId="3" r:id="rId2"/>
     <sheet name="Flights Handled(data03)" sheetId="2" r:id="rId3"/>
-    <sheet name="Dublin Airport Flights (data04)" sheetId="4" r:id="rId4"/>
+    <sheet name="Irish Airport Flights (data04)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -987,7 +987,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
